--- a/src/test/java/rc25/mFormsAutomation/TestData/CreateInputOptions.xlsx
+++ b/src/test/java/rc25/mFormsAutomation/TestData/CreateInputOptions.xlsx
@@ -29,9 +29,6 @@
     <t>vmidha@astegic.com</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Automation input option86</t>
+  </si>
+  <si>
+    <t>Astegic1!</t>
   </si>
 </sst>
 </file>
@@ -168,8 +168,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -461,7 +489,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,21 +511,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -521,127 +549,127 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
